--- a/DesktopC/bin/Debug/HOUSE REPORT BASE.xlsx
+++ b/DesktopC/bin/Debug/HOUSE REPORT BASE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30600" windowHeight="6255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30600" windowHeight="6255" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="JUL 24TH" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="76">
   <si>
     <t>Volume</t>
   </si>
@@ -263,6 +263,9 @@
   <si>
     <t>JULY 30TH</t>
   </si>
+  <si>
+    <t>g8perhead.com</t>
+  </si>
 </sst>
 </file>
 
@@ -271,7 +274,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,6 +326,14 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -528,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -615,6 +626,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1740,7 +1757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -8785,10 +8802,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9267,7 +9284,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>38</v>
       </c>
@@ -9294,7 +9311,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>41</v>
       </c>
@@ -9324,7 +9341,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>44</v>
       </c>
@@ -9354,7 +9371,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>47</v>
       </c>
@@ -9384,7 +9401,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>50</v>
       </c>
@@ -9414,7 +9431,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>53</v>
       </c>
@@ -9444,7 +9461,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>12</v>
       </c>
@@ -9480,7 +9497,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -9511,7 +9528,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
@@ -9535,7 +9552,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>61</v>
       </c>
@@ -9553,7 +9570,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>63</v>
       </c>
@@ -9574,7 +9591,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>65</v>
       </c>
@@ -9601,10 +9618,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>69</v>
       </c>
@@ -9619,14 +9636,14 @@
       </c>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
       <c r="B31" s="24"/>
       <c r="C31" s="25"/>
       <c r="D31" s="26"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="27" t="s">
         <v>66</v>
       </c>
@@ -9641,6 +9658,9 @@
       <c r="D32" s="29" t="e">
         <f>(C32/B32)</f>
         <v>#DIV/0!</v>
+      </c>
+      <c r="O32" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -10563,10 +10583,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10576,6 +10596,7 @@
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.42578125" bestFit="1" customWidth="1"/>
@@ -10734,7 +10755,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>15</v>
       </c>
@@ -10757,10 +10778,12 @@
       <c r="K6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="10">
-        <v>0</v>
-      </c>
-      <c r="M6" s="10">
+      <c r="L6" s="30">
+        <f>SUM(L3:L5)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="30">
+        <f>SUM(M3:M5)</f>
         <v>0</v>
       </c>
       <c r="N6" s="8" t="e">
@@ -10944,11 +10967,11 @@
       <c r="F13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="31">
         <f>SUM(G3:G12)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="31">
         <f>SUM(H3:H12)</f>
         <v>0</v>
       </c>
@@ -11045,7 +11068,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>41</v>
       </c>
@@ -11072,7 +11095,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>44</v>
       </c>
@@ -11102,7 +11125,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>47</v>
       </c>
@@ -11132,7 +11155,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>50</v>
       </c>
@@ -11162,7 +11185,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>53</v>
       </c>
@@ -11192,15 +11215,15 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="31">
         <f>SUM(B3:B21)</f>
         <v>0</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="31">
         <f>SUM(C3:C21)</f>
         <v>0</v>
       </c>
@@ -11228,7 +11251,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -11253,7 +11276,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>73</v>
       </c>
@@ -11279,11 +11302,11 @@
       <c r="K24" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="30">
         <f>SUM(L11:L23)</f>
         <v>0</v>
       </c>
-      <c r="M24" s="10">
+      <c r="M24" s="30">
         <f>SUM(M11:M23)</f>
         <v>0</v>
       </c>
@@ -11292,7 +11315,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>61</v>
       </c>
@@ -11310,7 +11333,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>63</v>
       </c>
@@ -11331,15 +11354,15 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="31">
         <f>SUM(B26)</f>
         <v>0</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="31">
         <f>SUM(C26)</f>
         <v>0</v>
       </c>
@@ -11358,16 +11381,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E28" s="4"/>
       <c r="F28" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="31">
         <f>SUM(G18:G27)</f>
         <v>0</v>
       </c>
-      <c r="H28" s="16">
+      <c r="H28" s="31">
         <f>SUM(H18:H27)</f>
         <v>0</v>
       </c>
@@ -11375,8 +11398,11 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="P28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>73</v>
       </c>
@@ -11391,14 +11417,14 @@
       </c>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="24"/>
       <c r="C30" s="25"/>
       <c r="D30" s="26"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="27" t="s">
         <v>66</v>
       </c>
@@ -11442,6 +11468,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
 
